--- a/survey/Survey Planning.xlsx
+++ b/survey/Survey Planning.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Tasks</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>Analysis</t>
+  </si>
+  <si>
+    <t>Starting with this</t>
+  </si>
+  <si>
+    <t>Qualtrix looks at first glance really advanced and respondents can use all devices with it</t>
+  </si>
+  <si>
+    <t>Limesurvey online has a free version and a version for 39 CHF per month (these two can cover our requirements)</t>
   </si>
 </sst>
 </file>
@@ -514,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,6 +621,9 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
@@ -621,17 +633,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
